--- a/prot/356379915/Переход трубопровода через р. Енисей/OCR/1066.xlsx
+++ b/prot/356379915/Переход трубопровода через р. Енисей/OCR/1066.xlsx
@@ -3342,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="23" t="n">
-        <v>1.046286689865159</v>
+        <v>1.047323053501523</v>
       </c>
       <c r="E28" s="12" t="n"/>
       <c r="F28" s="31" t="n"/>
@@ -3356,43 +3356,43 @@
         <v>0.0125</v>
       </c>
       <c r="O28" s="81" t="n">
-        <v>1.286225811097649</v>
+        <v>1.289061201769881</v>
       </c>
       <c r="P28" s="81" t="n">
-        <v>0.3635784512111804</v>
+        <v>0.3631713408049546</v>
       </c>
       <c r="Q28" s="81" t="n">
-        <v>0.9206620432091298</v>
+        <v>0.9231351133490245</v>
       </c>
       <c r="R28" s="81" t="n">
-        <v>0.3635784512111804</v>
+        <v>0.3631713408049546</v>
       </c>
       <c r="S28" s="81" t="n">
-        <v>0.9206620432091298</v>
+        <v>0.9231351133490245</v>
       </c>
       <c r="T28" s="81" t="n">
-        <v>0.3635784512111804</v>
+        <v>0.3631713408049546</v>
       </c>
       <c r="U28" s="81" t="n">
-        <v>0.9206620432091298</v>
+        <v>0.9231351133490245</v>
       </c>
       <c r="V28" s="81" t="n">
-        <v>0.6760376810830786</v>
+        <v>0.6773719644998487</v>
       </c>
       <c r="W28" s="81" t="n">
-        <v>0.9008448905042257</v>
+        <v>0.9032777894830303</v>
       </c>
       <c r="X28" s="81" t="n">
-        <v>0.6760376810830786</v>
+        <v>0.6773719644998487</v>
       </c>
       <c r="Y28" s="81" t="n">
-        <v>0.9008448905042257</v>
+        <v>0.9032777894830303</v>
       </c>
       <c r="Z28" s="81" t="n">
         <v>0.0125</v>
       </c>
       <c r="AA28" s="81" t="n">
-        <v>1.136022573050991</v>
+        <v>1.137790360339865</v>
       </c>
       <c r="AB28" s="81" t="n"/>
       <c r="AC28" s="81" t="n"/>
@@ -3410,10 +3410,10 @@
         <v>0.025</v>
       </c>
       <c r="C29" s="35" t="n">
-        <v>0.02557776673087678</v>
+        <v>0.0250842602373703</v>
       </c>
       <c r="D29" s="23" t="n">
-        <v>1.028382253153545</v>
+        <v>1.029764071335363</v>
       </c>
       <c r="E29" s="12" t="n"/>
       <c r="F29" s="31" t="n"/>
@@ -3427,34 +3427,34 @@
         <v>6.4</v>
       </c>
       <c r="O29" s="81" t="n">
-        <v>0.6837651834903452</v>
+        <v>0.6862692071765368</v>
       </c>
       <c r="P29" s="81" t="n">
         <v>0.4</v>
       </c>
       <c r="Q29" s="81" t="n">
-        <v>0.9206620432091298</v>
+        <v>0.9231351133490245</v>
       </c>
       <c r="R29" s="81" t="n">
         <v>0.4</v>
       </c>
       <c r="S29" s="81" t="n">
-        <v>0.9176117870957714</v>
+        <v>0.9200581453035095</v>
       </c>
       <c r="T29" s="81" t="n">
         <v>0.4</v>
       </c>
       <c r="U29" s="81" t="n">
-        <v>0.9145615309824129</v>
+        <v>0.9169811772579943</v>
       </c>
       <c r="V29" s="81" t="n">
-        <v>0.6760376810830786</v>
+        <v>0.6773719644998487</v>
       </c>
       <c r="W29" s="81" t="n">
-        <v>0.9008448905042257</v>
+        <v>0.9032777894830303</v>
       </c>
       <c r="X29" s="81" t="n">
-        <v>0.6760376810830786</v>
+        <v>0.6773719644998487</v>
       </c>
       <c r="Y29" s="81" t="n">
         <v>0</v>
@@ -3463,7 +3463,7 @@
         <v>4.00625</v>
       </c>
       <c r="AA29" s="81" t="n">
-        <v>0.7673262334067565</v>
+        <v>0.770179259074888</v>
       </c>
       <c r="AB29" s="81" t="n"/>
       <c r="AC29" s="81" t="n"/>
@@ -3481,10 +3481,10 @@
         <v>0.05</v>
       </c>
       <c r="C30" s="35" t="n">
-        <v>0.03410368897450237</v>
+        <v>0.03344568031649373</v>
       </c>
       <c r="D30" s="23" t="n">
-        <v>1.027840834440356</v>
+        <v>1.029709630509152</v>
       </c>
       <c r="E30" s="12" t="n"/>
       <c r="F30" s="31" t="n"/>
@@ -3498,34 +3498,34 @@
         <v>8</v>
       </c>
       <c r="O30" s="81" t="n">
-        <v>0.6622152943692048</v>
+        <v>0.6647074651284492</v>
       </c>
       <c r="P30" s="81" t="n">
         <v>8</v>
       </c>
       <c r="Q30" s="81" t="n">
-        <v>0.9206620432091298</v>
+        <v>0.9231351133490245</v>
       </c>
       <c r="R30" s="81" t="n">
         <v>8</v>
       </c>
       <c r="S30" s="81" t="n">
-        <v>0.8218979171318478</v>
+        <v>0.8246260041064417</v>
       </c>
       <c r="T30" s="81" t="n">
         <v>8</v>
       </c>
       <c r="U30" s="81" t="n">
-        <v>0.7231337910545658</v>
+        <v>0.726116894863859</v>
       </c>
       <c r="V30" s="81" t="n">
-        <v>0.6760376810830786</v>
+        <v>0.6773719644998487</v>
       </c>
       <c r="W30" s="81" t="n">
-        <v>0.9008448905042257</v>
+        <v>0.9032777894830303</v>
       </c>
       <c r="X30" s="81" t="n">
-        <v>0.6760376810830786</v>
+        <v>0.6773719644998487</v>
       </c>
       <c r="Y30" s="81" t="n">
         <v>0</v>
@@ -3534,7 +3534,7 @@
         <v>8</v>
       </c>
       <c r="AA30" s="81" t="n">
-        <v>0.723133791054569</v>
+        <v>0.7261168948638613</v>
       </c>
       <c r="AB30" s="81" t="n"/>
       <c r="AC30" s="81" t="n"/>
@@ -3552,10 +3552,10 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="35" t="n">
-        <v>0.03436150740935431</v>
+        <v>0.03347160451945141</v>
       </c>
       <c r="D31" s="23" t="n">
-        <v>0.9938595292116824</v>
+        <v>0.9959427396948929</v>
       </c>
       <c r="E31" s="12" t="n"/>
       <c r="F31" s="31" t="n"/>
@@ -3595,10 +3595,10 @@
         <v>0.2</v>
       </c>
       <c r="C32" s="35" t="n">
-        <v>0.05054308132777032</v>
+        <v>0.04955107633576533</v>
       </c>
       <c r="D32" s="23" t="n">
-        <v>0.9588537393961285</v>
+        <v>0.9611430138743685</v>
       </c>
       <c r="E32" s="12" t="n"/>
       <c r="F32" s="31" t="n"/>
@@ -3638,10 +3638,10 @@
         <v>0.4</v>
       </c>
       <c r="C33" s="35" t="n">
-        <v>0.06721250504946263</v>
+        <v>0.06612237434553883</v>
       </c>
       <c r="D33" s="23" t="n">
-        <v>0.9145615309824129</v>
+        <v>0.9169811772579943</v>
       </c>
       <c r="E33" s="12" t="n"/>
       <c r="F33" s="31" t="n"/>
@@ -3681,10 +3681,10 @@
         <v>0.8</v>
       </c>
       <c r="C34" s="35" t="n">
-        <v>0.08830403286551772</v>
+        <v>0.08715182035333605</v>
       </c>
       <c r="D34" s="23" t="n">
-        <v>0.8636641523725364</v>
+        <v>0.8661603326991889</v>
       </c>
       <c r="G34" s="31" t="n"/>
       <c r="H34" s="31" t="n"/>
@@ -3722,10 +3722,10 @@
         <v>1.6</v>
       </c>
       <c r="C35" s="35" t="n">
-        <v>0.1125408798226017</v>
+        <v>0.1113522225241958</v>
       </c>
       <c r="D35" s="23" t="n">
-        <v>0.807358126976935</v>
+        <v>0.8098867562902816</v>
       </c>
       <c r="E35" s="12" t="n"/>
       <c r="F35" s="73" t="inlineStr">
@@ -3738,7 +3738,7 @@
       <c r="I35" s="56" t="n"/>
       <c r="J35" s="57" t="n"/>
       <c r="K35" s="46" t="n">
-        <v>0.6760376810830786</v>
+        <v>0.6773719644998487</v>
       </c>
       <c r="L35" s="13" t="n"/>
       <c r="N35" s="81" t="n"/>
@@ -3771,10 +3771,10 @@
         <v>3.2</v>
       </c>
       <c r="C36" s="35" t="n">
-        <v>0.1393532728681263</v>
+        <v>0.1381491636712945</v>
       </c>
       <c r="D36" s="23" t="n">
-        <v>0.7470061017940339</v>
+        <v>0.7495342017599078</v>
       </c>
       <c r="E36" s="12" t="n"/>
       <c r="F36" s="67" t="inlineStr">
@@ -3820,10 +3820,10 @@
         <v>6.4</v>
       </c>
       <c r="C37" s="35" t="n">
-        <v>0.1680923324790315</v>
+        <v>0.1668884753524249</v>
       </c>
       <c r="D37" s="23" t="n">
-        <v>0.6837651834903452</v>
+        <v>0.6862692071765368</v>
       </c>
       <c r="E37" s="12" t="n"/>
       <c r="F37" s="67" t="inlineStr">
@@ -3836,7 +3836,7 @@
       <c r="I37" s="49" t="n"/>
       <c r="J37" s="50" t="n"/>
       <c r="K37" s="45" t="n">
-        <v>13.52075362166157</v>
+        <v>13.54743928999697</v>
       </c>
       <c r="L37" s="13" t="n"/>
       <c r="N37" s="81" t="n"/>
@@ -3869,10 +3869,10 @@
         <v>8</v>
       </c>
       <c r="C38" s="36" t="n">
-        <v>0.198207055480788</v>
+        <v>0.1970146632492682</v>
       </c>
       <c r="D38" s="25" t="n">
-        <v>0.6622152943692048</v>
+        <v>0.6647074651284492</v>
       </c>
       <c r="E38" s="12" t="n"/>
       <c r="F38" s="68" t="inlineStr">
@@ -3885,7 +3885,7 @@
       <c r="I38" s="69" t="n"/>
       <c r="J38" s="70" t="n"/>
       <c r="K38" s="47" t="n">
-        <v>0.6260376810830786</v>
+        <v>0.6273719644998487</v>
       </c>
       <c r="L38" s="13" t="n"/>
       <c r="N38" s="81" t="n"/>
@@ -4191,7 +4191,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="O45" s="91" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="P45" s="88" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="S45" s="88" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="T45" s="88" t="n"/>
       <c r="U45" s="81" t="n"/>
@@ -4229,10 +4229,10 @@
         <v>0.0125</v>
       </c>
       <c r="C46" s="35" t="n">
-        <v>0.1598610420679799</v>
+        <v>0.1567766264835644</v>
       </c>
       <c r="D46" s="37" t="n">
-        <v>0.1598610420679799</v>
+        <v>0.1567766264835644</v>
       </c>
       <c r="E46" s="31" t="n"/>
       <c r="F46" s="31" t="n"/>
@@ -4252,13 +4252,13 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="Q46" s="87" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="R46" s="88" t="n">
         <v>0.6000000000000001</v>
       </c>
       <c r="S46" s="88" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="T46" s="88" t="n"/>
       <c r="U46" s="81" t="n"/>
@@ -4284,10 +4284,10 @@
         <v>0.025</v>
       </c>
       <c r="C47" s="35" t="n">
-        <v>0.1598610420679799</v>
+        <v>0.1567766264835643</v>
       </c>
       <c r="D47" s="37" t="n">
-        <v>0.3197220841359598</v>
+        <v>0.3135532529671287</v>
       </c>
       <c r="E47" s="31" t="n"/>
       <c r="F47" s="31" t="n"/>
@@ -4327,10 +4327,10 @@
         <v>0.05</v>
       </c>
       <c r="C48" s="35" t="n">
-        <v>0.009668191306947516</v>
+        <v>0.000972157610913349</v>
       </c>
       <c r="D48" s="37" t="n">
-        <v>0.3293902754429073</v>
+        <v>0.314525410578042</v>
       </c>
       <c r="E48" s="31" t="n"/>
       <c r="F48" s="31" t="n"/>
@@ -4370,10 +4370,10 @@
         <v>0.1</v>
       </c>
       <c r="C49" s="35" t="n">
-        <v>1.213618043881201</v>
+        <v>1.205960386223544</v>
       </c>
       <c r="D49" s="37" t="n">
-        <v>1.543008319324109</v>
+        <v>1.520485796801586</v>
       </c>
       <c r="E49" s="31" t="n"/>
       <c r="F49" s="31" t="n"/>
@@ -4413,10 +4413,10 @@
         <v>0.2</v>
       </c>
       <c r="C50" s="35" t="n">
-        <v>2.500413558253848</v>
+        <v>2.485694701466027</v>
       </c>
       <c r="D50" s="37" t="n">
-        <v>4.043421877577956</v>
+        <v>4.006180498267613</v>
       </c>
       <c r="E50" s="31" t="n"/>
       <c r="F50" s="31" t="n"/>
@@ -4456,10 +4456,10 @@
         <v>0.4</v>
       </c>
       <c r="C51" s="35" t="n">
-        <v>6.327458344816528</v>
+        <v>6.308833802339164</v>
       </c>
       <c r="D51" s="37" t="n">
-        <v>10.37088022239448</v>
+        <v>10.31501430060678</v>
       </c>
       <c r="E51" s="31" t="n"/>
       <c r="F51" s="31" t="n"/>
@@ -4499,10 +4499,10 @@
         <v>0.8</v>
       </c>
       <c r="C52" s="35" t="n">
-        <v>14.54210817425042</v>
+        <v>14.52024130251587</v>
       </c>
       <c r="D52" s="37" t="n">
-        <v>24.91298839664491</v>
+        <v>24.83525560312265</v>
       </c>
       <c r="E52" s="31" t="n"/>
       <c r="F52" s="73" t="inlineStr">
@@ -4548,10 +4548,10 @@
         <v>1.6</v>
       </c>
       <c r="C53" s="35" t="n">
-        <v>32.17487165462941</v>
+        <v>32.15632937651844</v>
       </c>
       <c r="D53" s="37" t="n">
-        <v>57.08786005127432</v>
+        <v>56.99158497964109</v>
       </c>
       <c r="E53" s="31" t="n"/>
       <c r="F53" s="67" t="inlineStr">
@@ -4597,10 +4597,10 @@
         <v>3.2</v>
       </c>
       <c r="C54" s="35" t="n">
-        <v>68.97374306617253</v>
+        <v>68.97434803471296</v>
       </c>
       <c r="D54" s="37" t="n">
-        <v>126.0616031174469</v>
+        <v>125.9659330143541</v>
       </c>
       <c r="E54" s="31" t="n"/>
       <c r="F54" s="67" t="inlineStr">
@@ -4646,10 +4646,10 @@
         <v>6.4</v>
       </c>
       <c r="C55" s="36" t="n">
-        <v>144.5506704084315</v>
+        <v>144.6057019048479</v>
       </c>
       <c r="D55" s="38" t="n">
-        <v>270.6122735258784</v>
+        <v>270.571634919202</v>
       </c>
       <c r="E55" s="31" t="n"/>
       <c r="F55" s="68" t="inlineStr">
@@ -4695,7 +4695,7 @@
         <v>8</v>
       </c>
       <c r="C56" s="31" t="n">
-        <v>73.88533412962403</v>
+        <v>73.92597273630042</v>
       </c>
       <c r="D56" s="31" t="n">
         <v>344.4976076555024</v>
